--- a/exports/post.xlsx
+++ b/exports/post.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
-  <si>
-    <t>Shared text</t>
-  </si>
-  <si>
-    <t>Post ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
+  <si>
+    <t>Post_Id</t>
   </si>
   <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Posted text</t>
-  </si>
-  <si>
-    <t>Publication time</t>
-  </si>
-  <si>
-    <t>Tine stamp</t>
+    <t>Post_Text</t>
+  </si>
+  <si>
+    <t>Shared_Text</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>Image lowquality</t>
+    <t>Image_Lowquality</t>
   </si>
   <si>
     <t>Images</t>
   </si>
   <si>
-    <t>Images description</t>
-  </si>
-  <si>
-    <t>images lowquality</t>
-  </si>
-  <si>
-    <t>Images lowquality description</t>
+    <t>Images_Description</t>
+  </si>
+  <si>
+    <t>Images_Lowquality</t>
+  </si>
+  <si>
+    <t>Images_Lowquality_Description</t>
   </si>
   <si>
     <t>Video</t>
   </si>
   <si>
-    <t>Video duration(sec)</t>
-  </si>
-  <si>
-    <t>Video width</t>
-  </si>
-  <si>
-    <t>Video height</t>
-  </si>
-  <si>
-    <t>Video ID</t>
-  </si>
-  <si>
-    <t>Video quality</t>
-  </si>
-  <si>
-    <t>Video siza(MB)</t>
-  </si>
-  <si>
-    <t>Video thumbnail</t>
-  </si>
-  <si>
-    <t>Video watches</t>
+    <t>Video_Duration_Seconds</t>
+  </si>
+  <si>
+    <t>Video_Height</t>
+  </si>
+  <si>
+    <t>Video_Id</t>
+  </si>
+  <si>
+    <t>Video_Quality</t>
+  </si>
+  <si>
+    <t>Video_Size_Mb</t>
+  </si>
+  <si>
+    <t>Video_Thumbnail</t>
+  </si>
+  <si>
+    <t>Video_Watches</t>
+  </si>
+  <si>
+    <t>Video_Width</t>
   </si>
   <si>
     <t>Likes</t>
@@ -88,74 +88,79 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>Post url</t>
+    <t>Post_Url</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>User ID</t>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>User_Id</t>
   </si>
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>User URL</t>
-  </si>
-  <si>
-    <t>Is live</t>
-  </si>
-  <si>
-    <t>Fatcheck</t>
-  </si>
-  <si>
-    <t>Shared post ID</t>
-  </si>
-  <si>
-    <t>Shared time</t>
-  </si>
-  <si>
-    <t>Shared user ID</t>
-  </si>
-  <si>
-    <t>Shared username</t>
-  </si>
-  <si>
-    <t>Shared post url</t>
+    <t>User_Url</t>
+  </si>
+  <si>
+    <t>Is_Live</t>
+  </si>
+  <si>
+    <t>Factcheck</t>
+  </si>
+  <si>
+    <t>Shared_Post_Id</t>
+  </si>
+  <si>
+    <t>Shared_Time</t>
+  </si>
+  <si>
+    <t>Shared_User_Id</t>
+  </si>
+  <si>
+    <t>Shared_Username</t>
+  </si>
+  <si>
+    <t>Shared_Post_Url</t>
   </si>
   <si>
     <t>Available</t>
   </si>
   <si>
-    <t>Full comments</t>
+    <t>Comments_Full</t>
   </si>
   <si>
     <t>Reactors</t>
   </si>
   <si>
-    <t>W3 fb url</t>
+    <t>W3_Fb_Url</t>
   </si>
   <si>
     <t>Reactions</t>
   </si>
   <si>
-    <t>Reactions count</t>
+    <t>Reaction_Count</t>
   </si>
   <si>
     <t>With</t>
   </si>
   <si>
-    <t>Image ID</t>
-  </si>
-  <si>
-    <t>Image IDs</t>
-  </si>
-  <si>
-    <t>DO512.COM
-Zack Morgan &amp; Friends Late Night ACL Superjam at One 2 One Bar</t>
+    <t>Page_Id</t>
+  </si>
+  <si>
+    <t>Sharers</t>
+  </si>
+  <si>
+    <t>Image_Id</t>
+  </si>
+  <si>
+    <t>Image_Ids</t>
+  </si>
+  <si>
+    <t>Was_Live</t>
   </si>
   <si>
     <t>10106697381550735</t>
@@ -232,6 +237,10 @@
 This will help us get in front of all the ACL visitors looking for aftershows. Thanks y'all!</t>
   </si>
   <si>
+    <t>DO512.COM
+Zack Morgan &amp; Friends Late Night ACL Superjam at One 2 One Bar</t>
+  </si>
+  <si>
     <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/fr/cp0/e15/q65/248637172_10106697377992865_4015345608590274695_n.jpg?_nc_cat=101&amp;ccb=1-5&amp;_nc_sid=8024bb&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=sJ2UbpLSbRUAX8xXFQN&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=f07138828d40f02f411b2a684643f957&amp;oe=61A6D85F&amp;manual_redirect=1</t>
   </si>
   <si>
@@ -268,13 +277,13 @@
     <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/cp0/e15/q65/s320x320/242801912_10106662231656405_216265035381802173_n.jpg?_nc_cat=107&amp;ccb=1-5&amp;_nc_sid=8024bb&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=Vhom3A3QFcMAX9b5ShA&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=c162e4219b40510e04099307e8ec029c&amp;oe=61A46FA5</t>
   </si>
   <si>
-    <t>https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGwPzexegYo6K63&amp;w=300&amp;h=161&amp;url=https%3A%2F%2Fmedia3.giphy.com%2Fmedia%2Flz4v1s0yZU2WV7sbzL%2Fgiphy.gif%3Fct%3Dg&amp;cfs=1&amp;jq=65&amp;ext=jpg&amp;pv=15&amp;_nc_oe=6ef5c&amp;_nc_sid=f3b36a&amp;ccb=3-5&amp;_nc_hash=AQEiOQNR9LxH4c1f</t>
-  </si>
-  <si>
-    <t>https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGQvCoxCZsYDjoW&amp;w=476&amp;h=249&amp;url=https%3A%2F%2Fassets0.dostuffmedia.com%2Fuploads%2Faws_asset%2Faws_asset%2F8537478%2Fa56bb2bb-d2de-4085-bb9e-84241dd8f05e.jpg&amp;cfs=1&amp;jq=75&amp;ext=jpg&amp;_nc_oe=6ef5c&amp;_nc_sid=06c271&amp;ccb=3-5&amp;_nc_hash=AQFyn5ZGwatFna-m</t>
-  </si>
-  <si>
-    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t15.5256-10/cp0/e15/q65/p320x320/241972868_448066753259964_4201031231871730478_n.jpg?_nc_cat=106&amp;ccb=1-5&amp;_nc_sid=ccf8b3&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=obI3Axt_STMAX8VMxmw&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=5bf7856636a23d443bace838ec840145&amp;oe=61842C02</t>
+    <t>https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGwPzexegYo6K63&amp;w=300&amp;h=161&amp;url=https%3A%2F%2Fmedia3.giphy.com%2Fmedia%2Flz4v1s0yZU2WV7sbzL%2Fgiphy.gif%3Fct%3Dg&amp;cfs=1&amp;jq=65&amp;ext=jpg&amp;pv=15&amp;_nc_oe=6ef5e&amp;_nc_sid=f3b36a&amp;ccb=3-5&amp;_nc_hash=AQEzotrjI9FoAYbt</t>
+  </si>
+  <si>
+    <t>https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGQvCoxCZsYDjoW&amp;w=476&amp;h=249&amp;url=https%3A%2F%2Fassets0.dostuffmedia.com%2Fuploads%2Faws_asset%2Faws_asset%2F8537478%2Fa56bb2bb-d2de-4085-bb9e-84241dd8f05e.jpg&amp;cfs=1&amp;jq=75&amp;ext=jpg&amp;_nc_oe=6ef5e&amp;_nc_sid=06c271&amp;ccb=3-5&amp;_nc_hash=AQH03NtZ1Ifg-qwx</t>
+  </si>
+  <si>
+    <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t15.5256-10/cp0/e15/q65/p320x320/241972868_448066753259964_4201031231871730478_n.jpg?_nc_cat=106&amp;ccb=1-5&amp;_nc_sid=ccf8b3&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=obI3Axt_STMAX8VMxmw&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=d118f50936c383048112a4431890ce4a&amp;oe=61862642</t>
   </si>
   <si>
     <t>https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/cp0/e15/q65/s320x320/241480784_10106649885488225_5595641632895772278_n.jpg?_nc_cat=108&amp;ccb=1-5&amp;_nc_sid=8024bb&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=lz1go-VAL7YAX_CQZiJ&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=42b26e7f6ad19dcf5fa59e8fe5526ad5&amp;oe=61A5E7E2</t>
@@ -337,13 +346,13 @@
     <t>['https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/cp0/e15/q65/s320x320/242801912_10106662231656405_216265035381802173_n.jpg?_nc_cat=107&amp;ccb=1-5&amp;_nc_sid=8024bb&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=Vhom3A3QFcMAX9b5ShA&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=c162e4219b40510e04099307e8ec029c&amp;oe=61A46FA5']</t>
   </si>
   <si>
-    <t>['https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGwPzexegYo6K63&amp;w=300&amp;h=161&amp;url=https%3A%2F%2Fmedia3.giphy.com%2Fmedia%2Flz4v1s0yZU2WV7sbzL%2Fgiphy.gif%3Fct%3Dg&amp;cfs=1&amp;jq=65&amp;ext=jpg&amp;pv=15&amp;_nc_oe=6ef5c&amp;_nc_sid=f3b36a&amp;ccb=3-5&amp;_nc_hash=AQEiOQNR9LxH4c1f']</t>
-  </si>
-  <si>
-    <t>['https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGQvCoxCZsYDjoW&amp;w=476&amp;h=249&amp;url=https%3A%2F%2Fassets0.dostuffmedia.com%2Fuploads%2Faws_asset%2Faws_asset%2F8537478%2Fa56bb2bb-d2de-4085-bb9e-84241dd8f05e.jpg&amp;cfs=1&amp;jq=75&amp;ext=jpg&amp;_nc_oe=6ef5c&amp;_nc_sid=06c271&amp;ccb=3-5&amp;_nc_hash=AQFyn5ZGwatFna-m']</t>
-  </si>
-  <si>
-    <t>['https://scontent.fiev11-1.fna.fbcdn.net/v/t15.5256-10/cp0/e15/q65/p320x320/241972868_448066753259964_4201031231871730478_n.jpg?_nc_cat=106&amp;ccb=1-5&amp;_nc_sid=ccf8b3&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=obI3Axt_STMAX8VMxmw&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=5bf7856636a23d443bace838ec840145&amp;oe=61842C02']</t>
+    <t>['https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGwPzexegYo6K63&amp;w=300&amp;h=161&amp;url=https%3A%2F%2Fmedia3.giphy.com%2Fmedia%2Flz4v1s0yZU2WV7sbzL%2Fgiphy.gif%3Fct%3Dg&amp;cfs=1&amp;jq=65&amp;ext=jpg&amp;pv=15&amp;_nc_oe=6ef5e&amp;_nc_sid=f3b36a&amp;ccb=3-5&amp;_nc_hash=AQEzotrjI9FoAYbt']</t>
+  </si>
+  <si>
+    <t>['https://external.fiev11-1.fna.fbcdn.net/safe_image.php?d=AQGQvCoxCZsYDjoW&amp;w=476&amp;h=249&amp;url=https%3A%2F%2Fassets0.dostuffmedia.com%2Fuploads%2Faws_asset%2Faws_asset%2F8537478%2Fa56bb2bb-d2de-4085-bb9e-84241dd8f05e.jpg&amp;cfs=1&amp;jq=75&amp;ext=jpg&amp;_nc_oe=6ef5e&amp;_nc_sid=06c271&amp;ccb=3-5&amp;_nc_hash=AQH03NtZ1Ifg-qwx']</t>
+  </si>
+  <si>
+    <t>['https://scontent.fiev11-1.fna.fbcdn.net/v/t15.5256-10/cp0/e15/q65/p320x320/241972868_448066753259964_4201031231871730478_n.jpg?_nc_cat=106&amp;ccb=1-5&amp;_nc_sid=ccf8b3&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=obI3Axt_STMAX8VMxmw&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=d118f50936c383048112a4431890ce4a&amp;oe=61862642']</t>
   </si>
   <si>
     <t>['https://scontent.fiev11-1.fna.fbcdn.net/v/t1.6435-9/cp0/e15/q65/s320x320/241480784_10106649885488225_5595641632895772278_n.jpg?_nc_cat=108&amp;ccb=1-5&amp;_nc_sid=8024bb&amp;efg=eyJpIjoidCJ9&amp;_nc_ohc=lz1go-VAL7YAX_CQZiJ&amp;_nc_ht=scontent.fiev11-1.fna&amp;oh=42b26e7f6ad19dcf5fa59e8fe5526ad5&amp;oe=61A5E7E2']</t>
@@ -358,16 +367,16 @@
     <t>['GIF']</t>
   </si>
   <si>
-    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.1790-2/244463880_274380344585511_249596166908765637_n.mp4?_nc_cat=105&amp;ccb=1-5&amp;_nc_sid=985c63&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InN2ZV9zZCJ9&amp;_nc_ohc=lVRddI6A86EAX9A_v5M&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=f76785765964a30cf1e3e8d40db9088d&amp;oe=618042BF</t>
-  </si>
-  <si>
-    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.1790-2/244685078_585035342694095_320213269095803253_n.mp4?_nc_cat=101&amp;ccb=1-5&amp;_nc_sid=985c63&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InN2ZV9zZCJ9&amp;_nc_ohc=sEQ77e0ZqlcAX_V6nmv&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=bf6f459acb021c123f0c604c81f064af&amp;oe=618047AD</t>
-  </si>
-  <si>
-    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.4659-2/244434154_4083260008446597_3444105304214544633_n.mp4?_nc_cat=105&amp;ccb=1-5&amp;_nc_sid=73e57b&amp;_nc_ohc=C-cmtRrs11QAX8VkmYe&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=cf960fec3f5ebe8b7cd7b235414e56e3&amp;oe=61804049</t>
-  </si>
-  <si>
-    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.1790-2/242800230_4322329301182978_4755663357395287151_n.mp4?_nc_cat=108&amp;ccb=1-5&amp;_nc_sid=985c63&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InN2ZV9zZCJ9&amp;_nc_ohc=rCPb-QRTrpIAX9-fpfE&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=94f9712dc5dc064c6f00f4b323fa9ff0&amp;oe=618046EC</t>
+    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.1790-2/244463880_274380344585511_249596166908765637_n.mp4?_nc_cat=105&amp;ccb=1-5&amp;_nc_sid=985c63&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InN2ZV9zZCJ9&amp;_nc_ohc=lVRddI6A86EAX9A_v5M&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=f86a419ce180fe4b89b2c8e3e3d53e77&amp;oe=61805EDF</t>
+  </si>
+  <si>
+    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.1790-2/244685078_585035342694095_320213269095803253_n.mp4?_nc_cat=101&amp;ccb=1-5&amp;_nc_sid=985c63&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InN2ZV9zZCJ9&amp;_nc_ohc=sEQ77e0ZqlcAX_V6nmv&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=69638b4b7e4673d23c7c62bd7bc74c5d&amp;oe=618063CD</t>
+  </si>
+  <si>
+    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.4659-2/244434154_4083260008446597_3444105304214544633_n.mp4?_nc_cat=105&amp;ccb=1-5&amp;_nc_sid=73e57b&amp;_nc_ohc=C-cmtRrs11QAX8VkmYe&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=539be841720e50250417cd5f101c72ba&amp;oe=61806A79</t>
+  </si>
+  <si>
+    <t>https://video.fiev11-1.fna.fbcdn.net/v/t42.1790-2/242800230_4322329301182978_4755663357395287151_n.mp4?_nc_cat=108&amp;ccb=1-5&amp;_nc_sid=985c63&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InN2ZV9zZCJ9&amp;_nc_ohc=TlNBeqVAC7oAX_8ZmWL&amp;_nc_rml=0&amp;_nc_ht=video.fiev11-1.fna&amp;oh=389e476bb11e74315131f6f6311e386e&amp;oe=6180630C</t>
   </si>
   <si>
     <t>1195733407922912</t>
@@ -415,7 +424,7 @@
     <t>https://facebook.com/zack/posts/10106647204735475</t>
   </si>
   <si>
-    <t>https://do512.com/events/2021/10/1/zack-morgan-friends-late-night-acl-superjam-tickets?fbclid=IwAR0P5eLWc4Eiy_mFVz1QWCIuf3gATZxlnV-77-zS1vms3AQvhXnYpAkm4uA</t>
+    <t>https://do512.com/events/2021/10/1/zack-morgan-friends-late-night-acl-superjam-tickets?fbclid=IwAR1TriqDHE65j8nnG_mCRrnSWKrp2GU4XodWXfLP8woBqWSwC8aCKLfJ9Vs</t>
   </si>
   <si>
     <t>[{'link': '/thegreenjayaustin/?refid=17&amp;_ft_=mf_story_key.10106697381550735%3Atop_level_post_id.10106697381550735%3Atl_objid.10106697381550735%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106697381550735%3Apage_id.101932434899013%3Astory_location.4%3Astory_attachment_style.photo%3Aott.AX93ktatOLOk-z1D%3Atds_flgs.3%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A4284595154666987047%3A%3A%3Apage_insights.%7B%22101932434899013%22%3A%7B%22page_id%22%3A101932434899013%2C%22page_id_type%22%3A%22page%22%2C%22actor_id%22%3A25407071%2C%22dm%22%3A%7B%22isShare%22%3A0%2C%22originalPostOwnerID%22%3A0%7D%2C%22psn%22%3A%22EntStatusCreationStory%22%2C%22role%22%3A16%2C%22sl%22%3A4%7D%7D&amp;__tn__=%2As-R', 'text': 'The Green Jay'}]</t>
@@ -433,40 +442,46 @@
     <t>Zack Morgan</t>
   </si>
   <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106697381550735%3Atop_level_post_id.10106697381550735%3Atl_objid.10106697381550735%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106697381550735%3Apage_id.101932434899013%3Astory_location.4%3Astory_attachment_style.photo%3Aott.AX93ktatOLOk-z1D%3Atds_flgs.3%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A4284595154666987047%3A%3A%3Apage_insights.%7B%22101932434899013%22%3A%7B%22page_id%22%3A101932434899013%2C%22page_id_type%22%3A%22page%22%2C%22actor_id%22%3A25407071%2C%22dm%22%3A%7B%22isShare%22%3A0%2C%22originalPostOwnerID%22%3A0%7D%2C%22psn%22%3A%22EntStatusCreationStory%22%2C%22role%22%3A16%2C%22sl%22%3A4%7D%7D&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106688581171765%3Atop_level_post_id.10106688581171765%3Atl_objid.10106688581171765%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106688581171765%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A4195605052055056891%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106668489136365%3Atop_level_post_id.10106668489136365%3Atl_objid.10106668489136365%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106668489136365%3Astory_location.4%3Astory_attachment_style.video_inline%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-1213154638557307030%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106667618680765%3Atop_level_post_id.10106667618680765%3Atl_objid.10106667618680765%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106667618680765%3Astory_location.4%3Astory_attachment_style.video_inline%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-7628788544953797098%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106662232953805%3Atop_level_post_id.10106662232953805%3Atl_objid.10106662232953805%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106662232953805%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-2870088604075336%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106660690365165%3Atop_level_post_id.10106660690365165%3Atl_objid.10106660690365165%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106660690365165%3Astory_location.4%3Astory_attachment_style.animated_image_share%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A7449545679023725679%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106658687553815%3Atop_level_post_id.10106658687553815%3Atl_objid.10106658687553815%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106658687553815%3Astory_location.4%3Astory_attachment_style.share%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A250334164795893459%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106656252927825%3Atop_level_post_id.10106656252927825%3Atl_objid.10106656252927825%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106656252927825%3Astory_location.4%3Astory_attachment_style.video_inline%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-4811630836412576022%3A%3A&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106649891895385%3Atop_level_post_id.10106649891895385%3Atl_objid.10106649891895385%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106649891895385%3Apage_id.48911101474%3Astory_location.4%3Astory_attachment_style.photo%3Aott.AX_SodH2JVs4IhsX%3Atds_flgs.3%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A852487018218822342%3A%3A%3Apage_insights.%7B%2248911101474%22%3A%7B%22page_id%22%3A48911101474%2C%22page_id_type%22%3A%22page%22%2C%22actor_id%22%3A25407071%2C%22dm%22%3A%7B%22isShare%22%3A0%2C%22originalPostOwnerID%22%3A0%7D%2C%22psn%22%3A%22EntStatusCreationStory%22%2C%22role%22%3A16%2C%22sl%22%3A4%7D%7D&amp;__tn__=C-R</t>
-  </si>
-  <si>
-    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635787038&amp;refid=17&amp;_ft_=mf_story_key.10106647204735475%3Atop_level_post_id.10106647204735475%3Atl_objid.10106647204735475%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106647204735475%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-3059894476178366677%3A%3A&amp;__tn__=C-R</t>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106697381550735%3Atop_level_post_id.10106697381550735%3Atl_objid.10106697381550735%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106697381550735%3Apage_id.101932434899013%3Astory_location.4%3Astory_attachment_style.photo%3Aott.AX93ktatOLOk-z1D%3Atds_flgs.3%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A4284595154666987047%3A%3A%3Apage_insights.%7B%22101932434899013%22%3A%7B%22page_id%22%3A101932434899013%2C%22page_id_type%22%3A%22page%22%2C%22actor_id%22%3A25407071%2C%22dm%22%3A%7B%22isShare%22%3A0%2C%22originalPostOwnerID%22%3A0%7D%2C%22psn%22%3A%22EntStatusCreationStory%22%2C%22role%22%3A16%2C%22sl%22%3A4%7D%7D&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106688581171765%3Atop_level_post_id.10106688581171765%3Atl_objid.10106688581171765%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106688581171765%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A4195605052055056891%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106668489136365%3Atop_level_post_id.10106668489136365%3Atl_objid.10106668489136365%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106668489136365%3Astory_location.4%3Astory_attachment_style.video_inline%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-1213154638557307030%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106667618680765%3Atop_level_post_id.10106667618680765%3Atl_objid.10106667618680765%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106667618680765%3Astory_location.4%3Astory_attachment_style.video_inline%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-7628788544953797098%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106662232953805%3Atop_level_post_id.10106662232953805%3Atl_objid.10106662232953805%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106662232953805%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-2870088604075336%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106660690365165%3Atop_level_post_id.10106660690365165%3Atl_objid.10106660690365165%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106660690365165%3Astory_location.4%3Astory_attachment_style.animated_image_share%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A7449545679023725679%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106658687553815%3Atop_level_post_id.10106658687553815%3Atl_objid.10106658687553815%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106658687553815%3Astory_location.4%3Astory_attachment_style.share%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A250334164795893459%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106656252927825%3Atop_level_post_id.10106656252927825%3Atl_objid.10106656252927825%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106656252927825%3Astory_location.4%3Astory_attachment_style.video_inline%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-4811630836412576022%3A%3A&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106649891895385%3Atop_level_post_id.10106649891895385%3Atl_objid.10106649891895385%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106649891895385%3Apage_id.48911101474%3Astory_location.4%3Astory_attachment_style.photo%3Aott.AX_SodH2JVs4IhsX%3Atds_flgs.3%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A852487018218822342%3A%3A%3Apage_insights.%7B%2248911101474%22%3A%7B%22page_id%22%3A48911101474%2C%22page_id_type%22%3A%22page%22%2C%22actor_id%22%3A25407071%2C%22dm%22%3A%7B%22isShare%22%3A0%2C%22originalPostOwnerID%22%3A0%7D%2C%22psn%22%3A%22EntStatusCreationStory%22%2C%22role%22%3A16%2C%22sl%22%3A4%7D%7D&amp;__tn__=C-R</t>
+  </si>
+  <si>
+    <t>https://facebook.com/zack?lst=100035227692576%3A25407071%3A1635795362&amp;refid=17&amp;_ft_=mf_story_key.10106647204735475%3Atop_level_post_id.10106647204735475%3Atl_objid.10106647204735475%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106647204735475%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-3059894476178366677%3A%3A&amp;__tn__=C-R</t>
   </si>
   <si>
     <t>[{'name': 'Christina Thomas', 'link': '/christina.thomas.3382?refid=17&amp;_ft_=mf_story_key.10106688581171765%3Atop_level_post_id.10106688581171765%3Atl_objid.10106688581171765%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106688581171765%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A4195605052055056891%3A%3A&amp;__tn__=C-R'}]</t>
   </si>
   <si>
     <t>[{'name': 'William Wright', 'link': '/william.wright26793?refid=17&amp;_ft_=mf_story_key.10106647204735475%3Atop_level_post_id.10106647204735475%3Atl_objid.10106647204735475%3Acontent_owner_id_new.25407071%3Athrowback_story_fbid.10106647204735475%3Astory_location.4%3Astory_attachment_style.photo%3Athid.25407071%3A306061129499414%3A2%3A0%3A1638345599%3A-3059894476178366677%3A%3A&amp;__tn__=C-R'}, {'name': 'Casey Byars', 'link': '/casey.byars.atx?fref=pb'}, {'name': 'Ryan Casey', 'link': '/rhinoceros2001?fref=pb'}, {'name': 'Miguel Milla', 'link': '/migoygoy?fref=pb'}, {'name': 'Eddie Robbins', 'link': '/eddie.robbins2?fref=pb'}, {'name': 'Marcus Cardwell', 'link': '/marcuscardwell?fref=pb'}, {'name': 'Tje Austin Williams-Alldre\ndge', 'link': '/tjeaustin?fref=pb'}, {'name': 'Keither Perkins', 'link': '/keither.perkins?fref=pb'}, {'name': 'David Hunter Thacker', 'link': '/david.thacker?fref=pb'}, {'name': 'Erin Thunder Heart Stein', 'link': '/erin.e.stein?fref=pb'}, {'name': 'John Taylor', 'link': '/jvoss81?fref=pb'}, {'name': 'Kevin Flatt', 'link': '/kevinseanflatt?fref=pb'}]</t>
+  </si>
+  <si>
+    <t>101932434899013</t>
+  </si>
+  <si>
+    <t>48911101474</t>
   </si>
   <si>
     <t>10106697377987875</t>
@@ -871,13 +886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:50">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,40 +1031,49 @@
       <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:50">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>44498.60486111111</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="W2">
         <v>48</v>
@@ -1061,19 +1085,19 @@
         <v>1</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AC2">
         <v>25407071</v>
       </c>
       <c r="AD2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF2" t="b">
         <v>0</v>
@@ -1082,45 +1106,51 @@
         <v>1</v>
       </c>
       <c r="AT2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV2" t="s">
         <v>152</v>
       </c>
+      <c r="AW2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:50">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
         <v>44493.78680555556</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W3">
         <v>171</v>
@@ -1132,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC3">
         <v>25407071</v>
       </c>
       <c r="AD3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF3" t="b">
         <v>0</v>
@@ -1153,72 +1183,75 @@
         <v>1</v>
       </c>
       <c r="AS3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT3" t="s">
         <v>148</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>153</v>
       </c>
+      <c r="AW3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:50">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2">
         <v>44477.73795138889</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O4">
         <v>16</v>
       </c>
       <c r="P4">
+        <v>1280</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4">
+        <v>9.882213</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4">
+        <v>212</v>
+      </c>
+      <c r="V4">
         <v>720</v>
-      </c>
-      <c r="Q4">
-        <v>1280</v>
-      </c>
-      <c r="R4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4">
-        <v>9.882213</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4">
-        <v>212</v>
       </c>
       <c r="W4">
         <v>55</v>
@@ -1230,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AB4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC4">
         <v>25407071</v>
       </c>
       <c r="AD4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="b">
         <v>0</v>
@@ -1250,67 +1283,70 @@
       <c r="AM4" t="b">
         <v>1</v>
       </c>
-      <c r="AU4" t="s">
-        <v>87</v>
+      <c r="AW4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:50">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2">
         <v>44476.96827546296</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O5">
         <v>16</v>
       </c>
       <c r="P5">
+        <v>1280</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5">
+        <v>11.516871</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5">
+        <v>209</v>
+      </c>
+      <c r="V5">
         <v>720</v>
-      </c>
-      <c r="Q5">
-        <v>1280</v>
-      </c>
-      <c r="R5" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5">
-        <v>11.516871</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5">
-        <v>208</v>
       </c>
       <c r="W5">
         <v>39</v>
@@ -1322,19 +1358,19 @@
         <v>1</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC5">
         <v>25407071</v>
       </c>
       <c r="AD5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF5" t="b">
         <v>0</v>
@@ -1342,43 +1378,46 @@
       <c r="AM5" t="b">
         <v>1</v>
       </c>
-      <c r="AU5" t="s">
-        <v>87</v>
+      <c r="AW5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:50">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2">
         <v>44471.61180555556</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="W6">
         <v>150</v>
@@ -1390,19 +1429,19 @@
         <v>1</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC6">
         <v>25407071</v>
       </c>
       <c r="AD6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AF6" t="b">
         <v>0</v>
@@ -1410,55 +1449,58 @@
       <c r="AM6" t="b">
         <v>1</v>
       </c>
-      <c r="AT6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>154</v>
       </c>
+      <c r="AW6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:50">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2">
         <v>44470.36597222222</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" t="s">
-        <v>116</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="W7">
         <v>10</v>
@@ -1470,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AB7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AC7">
         <v>25407071</v>
       </c>
       <c r="AD7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AF7" t="b">
         <v>0</v>
@@ -1490,46 +1532,49 @@
       <c r="AM7" t="b">
         <v>1</v>
       </c>
-      <c r="AU7" t="s">
-        <v>87</v>
+      <c r="AW7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:50">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2">
         <v>44468.56180555555</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="W8">
         <v>44</v>
@@ -1541,22 +1586,22 @@
         <v>4</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC8">
         <v>25407071</v>
       </c>
       <c r="AD8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF8" t="b">
         <v>0</v>
@@ -1564,67 +1609,70 @@
       <c r="AM8" t="b">
         <v>1</v>
       </c>
-      <c r="AU8" t="s">
-        <v>87</v>
+      <c r="AW8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:50">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2">
         <v>44466.87320601852</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O9">
         <v>14</v>
       </c>
       <c r="P9">
+        <v>1280</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9">
+        <v>10.971548</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9">
+        <v>197</v>
+      </c>
+      <c r="V9">
         <v>720</v>
-      </c>
-      <c r="Q9">
-        <v>1280</v>
-      </c>
-      <c r="R9" t="s">
-        <v>117</v>
-      </c>
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9">
-        <v>10.971548</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V9">
-        <v>197</v>
       </c>
       <c r="W9">
         <v>58</v>
@@ -1636,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC9">
         <v>25407071</v>
       </c>
       <c r="AD9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AF9" t="b">
         <v>0</v>
@@ -1656,43 +1704,46 @@
       <c r="AM9" t="b">
         <v>1</v>
       </c>
-      <c r="AU9" t="s">
-        <v>87</v>
+      <c r="AW9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX9" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:50">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2">
         <v>44461.64097222222</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="W10">
         <v>102</v>
@@ -1704,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AC10">
         <v>25407071</v>
       </c>
       <c r="AD10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="b">
         <v>0</v>
@@ -1725,45 +1776,51 @@
         <v>1</v>
       </c>
       <c r="AT10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV10" t="s">
         <v>155</v>
       </c>
+      <c r="AW10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:50">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2">
         <v>44459.39722222222</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="W11">
         <v>69</v>
@@ -1775,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AB11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC11">
         <v>25407071</v>
       </c>
       <c r="AD11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="b">
         <v>0</v>
@@ -1796,13 +1853,16 @@
         <v>1</v>
       </c>
       <c r="AS11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV11" t="s">
         <v>156</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1817,12 +1877,12 @@
     <hyperlink ref="AE3" r:id="rId8"/>
     <hyperlink ref="I4" r:id="rId9"/>
     <hyperlink ref="N4" r:id="rId10"/>
-    <hyperlink ref="U4" r:id="rId11"/>
+    <hyperlink ref="T4" r:id="rId11"/>
     <hyperlink ref="Z4" r:id="rId12"/>
     <hyperlink ref="AE4" r:id="rId13"/>
     <hyperlink ref="I5" r:id="rId14"/>
     <hyperlink ref="N5" r:id="rId15"/>
-    <hyperlink ref="U5" r:id="rId16"/>
+    <hyperlink ref="T5" r:id="rId16"/>
     <hyperlink ref="Z5" r:id="rId17"/>
     <hyperlink ref="AE5" r:id="rId18"/>
     <hyperlink ref="H6" r:id="rId19"/>
@@ -1832,7 +1892,7 @@
     <hyperlink ref="H7" r:id="rId23"/>
     <hyperlink ref="I7" r:id="rId24"/>
     <hyperlink ref="N7" r:id="rId25"/>
-    <hyperlink ref="U7" r:id="rId26"/>
+    <hyperlink ref="T7" r:id="rId26"/>
     <hyperlink ref="Z7" r:id="rId27"/>
     <hyperlink ref="AE7" r:id="rId28"/>
     <hyperlink ref="H8" r:id="rId29"/>
@@ -1842,7 +1902,7 @@
     <hyperlink ref="AE8" r:id="rId33"/>
     <hyperlink ref="I9" r:id="rId34"/>
     <hyperlink ref="N9" r:id="rId35"/>
-    <hyperlink ref="U9" r:id="rId36"/>
+    <hyperlink ref="T9" r:id="rId36"/>
     <hyperlink ref="Z9" r:id="rId37"/>
     <hyperlink ref="AE9" r:id="rId38"/>
     <hyperlink ref="H10" r:id="rId39"/>
